--- a/Exercicios_02.08/1.0-exercicio-filmes/Modelagem/1.0-exercicio-filmes_fisico (1).xlsx
+++ b/Exercicios_02.08/1.0-exercicio-filmes/Modelagem/1.0-exercicio-filmes_fisico (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2°semestre- SENAI\sprint-1_2-semestre\Exercicios_02.08\1.0-exercicio-filmes\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A2345D-CEC0-4B14-A89C-6F6945327CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BC929-33EA-4677-ADF5-F369F020B56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{1F1821F2-7D6C-401C-807C-1130C7F87F3F}"/>
+    <workbookView xWindow="7200" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{1F1821F2-7D6C-401C-807C-1130C7F87F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="filme" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>genero</t>
   </si>
@@ -70,13 +61,28 @@
   </si>
   <si>
     <t>Diário de uma paixão</t>
+  </si>
+  <si>
+    <t>Aventura</t>
+  </si>
+  <si>
+    <t>Terror</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>Homem-aranha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -155,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -180,6 +200,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9AE024-D46E-484B-ACE1-3E44B91D7D8C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +597,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
@@ -582,6 +614,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -590,6 +628,28 @@
       </c>
       <c r="F6" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
